--- a/biology/Zoologie/Charaxes_lemosi/Charaxes_lemosi.xlsx
+++ b/biology/Zoologie/Charaxes_lemosi/Charaxes_lemosi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes lemosi est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Charaxinae et au genre Charaxes.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes lemosi a été nommé par James John Joicey et George Talbot en 1927[1]
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes lemosi a été nommé par James John Joicey et George Talbot en 1927
+</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes lemosi est un grand papillon de couleur ocre clair marqué d'une large bande bleu clair
 Le mâle avec une envergure de 75 mm est un peu moins grand que la femelle qui atteint 95 mm.
@@ -574,10 +590,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sa biologie est mal connue. Il est attiré par les fruits fermentés.
-Plantes hôtes</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue. Il est attiré par les fruits fermentés.
+</t>
         </is>
       </c>
     </row>
@@ -605,15 +623,52 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est uniquement présent dans le golfe de Guinée.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent dans le golfe de Guinée.
 C'est une espèce endémique de l'île du Prince dans l'archipel de Sao Tomé-et-Principe dans le Golfe de Guinée.
 Sur les autres projets Wikimedia :
 Charaxes lemosi, sur Wikimedia CommonsCharaxes lemosi, sur Wikispecies
-Biotope
-Il réside dans les forêts primaires.
-Protection</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_lemosi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_lemosi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts primaires.
+</t>
         </is>
       </c>
     </row>
